--- a/参考/to_apa-tom停止対象調査.xlsx
+++ b/参考/to_apa-tom停止対象調査.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcz048452\GitHub\test_term\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD3319-6202-4C6A-9FCF-CEFBF6EB29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0644E5C0-CBC7-4D0A-8E61-691865434C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C2679271-320B-4F72-AC24-ABB031E8F234}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2679271-320B-4F72-AC24-ABB031E8F234}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,37 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={83BD58A6-A7D7-4F88-9E54-FD3B5FE5F034}</author>
+    <author>tc={404113F8-EC3B-40A9-B999-5ABF5C422820}</author>
+  </authors>
+  <commentList>
+    <comment ref="M85" authorId="0" shapeId="0" xr:uid="{83BD58A6-A7D7-4F88-9E54-FD3B5FE5F034}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    Disableのため
+切り離しは行わず確認のみ</t>
+      </text>
+    </comment>
+    <comment ref="M93" authorId="1" shapeId="0" xr:uid="{404113F8-EC3B-40A9-B999-5ABF5C422820}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    Disableのため
+切り離しは行わず確認のみ</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="500">
   <si>
     <t>s01</t>
   </si>
@@ -3842,20 +3871,6 @@
 tomcat   26954 26952  1  2020 ?        13-18:38:17 /opt/s04/java/bin/java -Djava.util.logging.config.file=/opt/s04/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s04/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s04/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Dcom.sun.management.jmxremote -Dcom.sun.management.jmxremote.port=65533 -Dcom.sun.management.jmxremote.ssl=false -Dcom.sun.management.jmxremote.authenticate=false -Dcom.sun.management.jmxremote.rmi.port=65533 -Xloggc:/var/log/s04/tomcat/logs/gc.log.20201211145038 -Djava.endorsed.dirs=/opt/s04/tomcat/endorsed -classpath /opt/s04/tomcat/bin/bootstrap.jar:/opt/s04/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s04/tomcat -Dcatalina.home=/opt/s04/tomcat -Djava.io.tmpdir=/data/s04/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s04/tomcat/conf/server.xml start</t>
   </si>
   <si>
-    <t>tomcat    1891     1  0  2020 ?        00:00:00 /bin/sh /opt/s06/tomcat/bin/catalina.sh start -config /opt/s06/tomcat/conf/server.xml
-tomcat    1892     1  0  2020 ?        00:00:00 /opt/s06/apache/bin/rotatelogs /var/log/s06/tomcat/logs/catalina.out.%Y%m%d 86400 540
-tomcat    1903  1891  0  2020 ?        1-22:41:59 /opt/s06/java/bin/java -Djava.util.logging.config.file=/opt/s06/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s06/tomcat/jennifer/agent/1fx.conf -javaagent:/opt/s06/tomcat/jennifer/agent/jennifer.javaagent.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s06/tomcat/logs/gc.log.20200712013111 -Djava.endorsed.dirs=/opt/s06/tomcat/endorsed -classpath /opt/s06/tomcat/bin/bootstrap.jar:/opt/s06/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s06/tomcat -Dcatalina.home=/opt/s06/tomcat -Djava.io.tmpdir=/data/s06/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s06/tomcat/conf/server.xml start
-tomcat   10830     1  0  2023 ?        00:00:00 /bin/sh /opt/s04/tomcat/bin/catalina.sh start -config /opt/s04/tomcat/conf/server.xml
-tomcat   10831     1  0  2023 ?        00:00:00 /opt/s04/apache/bin/rotatelogs /var/log/s04/tomcat/logs/catalina.out.%Y%m%d 86400 540
-tomcat   10832 10830  0  2023 ?        1-09:11:09 /opt/s04/java/bin/java -Djava.util.logging.config.file=/opt/s04/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s04/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s04/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s04/tomcat/logs/gc.log.20231024163419 -Djava.endorsed.dirs=/opt/s04/tomcat/endorsed -classpath /opt/s04/tomcat/bin/bootstrap.jar:/opt/s04/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s04/tomcat -Dcatalina.home=/opt/s04/tomcat -Djava.io.tmpdir=/data/s04/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s04/tomcat/conf/server.xml start
-tomcat   12300     1  0 Feb01 ?        00:00:00 /bin/sh /opt/s03/tomcat/bin/catalina.sh start -config /opt/s03/tomcat/conf/server.xml
-tomcat   12301     1  0 Feb01 ?        00:00:00 /opt/s03/apache/bin/rotatelogs /var/log/s03/tomcat/logs/catalina.out.%Y%m%d 86400 540
-tomcat   12302 12300  0 Feb01 ?        11:53:15 /opt/s03/java/bin/java -Djava.util.logging.config.file=/opt/s03/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s03/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s03/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s03/tomcat/logs/gc.log.20240201122320 -Djava.endorsed.dirs=/opt/s03/tomcat/endorsed -classpath /opt/s03/tomcat/bin/bootstrap.jar:/opt/s03/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s03/tomcat -Dcatalina.home=/opt/s03/tomcat -Djava.io.tmpdir=/data/s03/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s03/tomcat/conf/server.xml start
-tomcat   21270     1  0  2022 ?        00:00:00 /bin/sh /opt/s07/tomcat/bin/catalina.sh start -config /opt/s07/tomcat/conf/server.xml
-tomcat   21271     1  0  2022 ?        00:00:00 /opt/s07/apache/bin/rotatelogs /var/log/s07/tomcat/logs/catalina.out.%Y%m%d 86400 540
-tomcat   21272 21270  1  2022 ?        11-00:00:51 /opt/s07/java/bin/java -Djava.util.logging.config.file=/opt/s07/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s07/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s07/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms3072m -Xmx3072m -XX:NewSize=1536m -XX:MaxNewSize=1536m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s07/tomcat/logs/gc.log.20220222142847 -Djava.endorsed.dirs=/opt/s07/tomcat/endorsed -classpath /opt/s07/tomcat/bin/bootstrap.jar:/opt/s07/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s07/tomcat -Dcatalina.home=/opt/s07/tomcat -Djava.io.tmpdir=/data/s07/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s07/tomcat/conf/server.xml start</t>
-  </si>
-  <si>
     <t>tomcat    1403     1  0  2021 ?        00:00:00 /bin/sh /opt/s06/tomcat/bin/catalina.sh start -config /opt/s06/tomcat/conf/server.xml
 tomcat    1405     1  0  2021 ?        00:00:00 /opt/s06/apache/bin/rotatelogs /var/log/s06/tomcat/logs/catalina.out.%Y%m%d 86400 540
 tomcat    1406  1403  0  2021 ?        1-17:53:36 /opt/s06/java/bin/java -Djava.util.logging.config.file=/opt/s06/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s06/tomcat/jennifer/agent/1fv.conf -javaagent:/opt/s06/tomcat/jennifer/agent/jennifer.javaagent.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s06/tomcat/logs/gc.log.20210420050104 -Djava.endorsed.dirs=/opt/s06/tomcat/endorsed -classpath /opt/s06/tomcat/bin/bootstrap.jar:/opt/s06/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s06/tomcat -Dcatalina.home=/opt/s06/tomcat -Djava.io.tmpdir=/data/s06/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s06/tomcat/conf/server.xml start
@@ -4387,27 +4402,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">要 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>※apacheのみ</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>total 200
 -rw-r--r--  1 root root  1160 Apr 28  2016 README
 -rwxr-xr-x  1 root root   905 Sep 28  2016 _apache-tomcat_s01_20231030
@@ -4536,13 +4530,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>要 ※tomcatのみ</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>total 152
 -rw-r--r--  1 root root  1160 Apr 28  2016 README
 -rwxr-xr-x  1 root root   905 Sep 28  2016 _apache-tomcat_s01_20231030
@@ -4847,6 +4834,68 @@
     <rPh sb="6" eb="7">
       <t>ビ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tomcat    1891     1  0  2020 ?        00:00:00 /bin/sh /opt/s06/tomcat/bin/catalina.sh start -config /opt/s06/tomcat/conf/server.xml
+tomcat    1892     1  0  2020 ?        00:00:00 /opt/s06/apache/bin/rotatelogs /var/log/s06/tomcat/logs/catalina.out.%Y%m%d 86400 540
+tomcat    1903  1891  0  2020 ?        1-22:41:59 /opt/s06/java/bin/java -Djava.util.logging.config.file=/opt/s06/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s06/tomcat/jennifer/agent/1fx.conf -javaagent:/opt/s06/tomcat/jennifer/agent/jennifer.javaagent.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s06/tomcat/logs/gc.log.20200712013111 -Djava.endorsed.dirs=/opt/s06/tomcat/endorsed -classpath /opt/s06/tomcat/bin/bootstrap.jar:/opt/s06/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s06/tomcat -Dcatalina.home=/opt/s06/tomcat -Djava.io.tmpdir=/data/s06/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s06/tomcat/conf/server.xml start
+tomcat   10830     1  0  2023 ?        00:00:00 /bin/sh /opt/s04/tomcat/bin/catalina.sh start -config /opt/s04/tomcat/conf/server.xml
+tomcat   10831     1  0  2023 ?        00:00:00 /opt/s04/apache/bin/rotatelogs /var/log/s04/tomcat/logs/catalina.out.%Y%m%d 86400 540
+tomcat   10832 10830  0  2023 ?        1-09:11:09 /opt/s04/java/bin/java -Djava.util.logging.config.file=/opt/s04/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s04/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s04/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s04/tomcat/logs/gc.log.20231024163419 -Djava.endorsed.dirs=/opt/s04/tomcat/endorsed -classpath /opt/s04/tomcat/bin/bootstrap.jar:/opt/s04/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s04/tomcat -Dcatalina.home=/opt/s04/tomcat -Djava.io.tmpdir=/data/s04/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s04/tomcat/conf/server.xml start
+tomcat   12300     1  0 Feb01 ?        00:00:00 /bin/sh /opt/s03/tomcat/bin/catalina.sh start -config /opt/s03/tomcat/conf/server.xml
+tomcat   12301     1  0 Feb01 ?        00:00:00 /opt/s03/apache/bin/rotatelogs /var/log/s03/tomcat/logs/catalina.out.%Y%m%d 86400 540
+tomcat   12302 12300  0 Feb01 ?        11:53:15 /opt/s03/java/bin/java -Djava.util.logging.config.file=/opt/s03/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s03/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s03/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms256m -Xmx256m -XX:NewSize=96m -XX:MaxNewSize=96m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s03/tomcat/logs/gc.log.20240201122320 -Djava.endorsed.dirs=/opt/s03/tomcat/endorsed -classpath /opt/s03/tomcat/bin/bootstrap.jar:/opt/s03/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s03/tomcat -Dcatalina.home=/opt/s03/tomcat -Djava.io.tmpdir=/data/s03/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s03/tomcat/conf/server.xml start
+tomcat   21270     1  0  2022 ?        00:00:00 /bin/sh /opt/s07/tomcat/bin/catalina.sh start -config /opt/s07/tomcat/conf/server.xml
+tomcat   21271     1  0  2022 ?        00:00:00 /opt/s07/apache/bin/rotatelogs /var/log/s07/tomcat/logs/catalina.out.%Y%m%d 86400 540
+tomcat   21272 21270  1  2022 ?        11-00:00:51 /opt/s07/java/bin/java -Djava.util.logging.config.file=/opt/s07/tomcat/conf/logging.properties -Djava.util.logging.manager=org.apache.juli.ClassLoaderLogManager -Djennifer.config=/opt/s07/tomcat/jennifer/agent.java/conf/jennifer.conf -javaagent:/opt/s07/tomcat/jennifer/agent.java/jennifer.jar -d64 -server -Xms3072m -Xmx3072m -XX:NewSize=1536m -XX:MaxNewSize=1536m -XX:MaxMetaspaceSize=128m -XX:CompressedClassSpaceSize=128m -verbose:gc -XX:+PrintGCDetails -XX:+PrintHeapAtGC -XX:+PrintGCTimeStamps -XX:+DisableExplicitGC -XX:+UseConcMarkSweepGC -XX:+CMSParallelRemarkEnabled -XX:CMSInitiatingOccupancyFraction=70 -XX:+UseParNewGC -XX:SurvivorRatio=8 -XX:MaxTenuringThreshold=15 -XX:TargetSurvivorRatio=80 -Xloggc:/var/log/s07/tomcat/logs/gc.log.20220222142847 -Djava.endorsed.dirs=/opt/s07/tomcat/endorsed -classpath /opt/s07/tomcat/bin/bootstrap.jar:/opt/s07/tomcat/bin/tomcat-juli.jar -Dcatalina.base=/opt/s07/tomcat -Dcatalina.home=/opt/s07/tomcat -Djava.io.tmpdir=/data/s07/tomcat/temp org.apache.catalina.startup.Bootstrap -config /opt/s07/tomcat/conf/server.xml start</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>×：無し</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr521vp6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr531vp6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr901vp6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr911vp6</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr511vp7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr521vp7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr901vp7</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NetScaler
+tofr901vp3</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -5050,7 +5099,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5135,8 +5184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -5761,17 +5816,6 @@
       <left style="double">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -6500,210 +6544,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="12" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6713,7 +6757,7 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6791,46 +6835,46 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="66" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="65" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6842,7 +6886,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6854,244 +6898,244 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7100,37 +7144,37 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7151,7 +7195,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7166,7 +7210,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -7202,92 +7246,92 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7296,6 +7340,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7369,6 +7418,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="照井 貴志" id="{EBD02DA1-69BE-4891-903B-7B6707E66FEB}" userId="S::bcz048452@gintra.bc-glex.net::c0882964-20f6-4c7a-8f0e-94aab26b98b6" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7666,16 +7721,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="M85" dT="2024-04-09T05:11:14.36" personId="{EBD02DA1-69BE-4891-903B-7B6707E66FEB}" id="{83BD58A6-A7D7-4F88-9E54-FD3B5FE5F034}">
+    <text>Disableのため
+切り離しは行わず確認のみ</text>
+  </threadedComment>
+  <threadedComment ref="M93" dT="2024-04-09T05:11:14.36" personId="{EBD02DA1-69BE-4891-903B-7B6707E66FEB}" id="{404113F8-EC3B-40A9-B999-5ABF5C422820}">
+    <text>Disableのため
+切り離しは行わず確認のみ</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29BB62C-D734-46ED-8CFA-3956E15D4A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29BB62C-D734-46ED-8CFA-3956E15D4A70}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:Q124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="79" topLeftCell="L80" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
-      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7692,7 +7758,7 @@
     <col min="10" max="10" width="22.58203125" style="285" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.75" style="211" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="17.1640625" style="211" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="211" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="211" customWidth="1"/>
     <col min="15" max="15" width="14" style="211" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="211" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="211" bestFit="1" customWidth="1"/>
@@ -7733,7 +7799,7 @@
       <c r="K1" s="293" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="259" t="s">
+      <c r="L1" s="309" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="259" t="s">
@@ -7749,7 +7815,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="260" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -7784,14 +7850,14 @@
         <v>322</v>
       </c>
       <c r="K2" s="294"/>
-      <c r="L2" s="308" t="s">
+      <c r="L2" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="308"/>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
-      <c r="Q2" s="308"/>
+      <c r="M2" s="306"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="306"/>
+      <c r="Q2" s="306"/>
     </row>
     <row r="3" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="213" t="s">
@@ -7825,14 +7891,14 @@
         <v>6</v>
       </c>
       <c r="K3" s="295"/>
-      <c r="L3" s="309" t="s">
+      <c r="L3" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
     </row>
     <row r="4" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="214" t="s">
@@ -7952,14 +8018,14 @@
         <v>325</v>
       </c>
       <c r="K6" s="297"/>
-      <c r="L6" s="308" t="s">
+      <c r="L6" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="308"/>
-      <c r="N6" s="308"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="308"/>
-      <c r="Q6" s="308"/>
+      <c r="M6" s="306"/>
+      <c r="N6" s="306"/>
+      <c r="O6" s="306"/>
+      <c r="P6" s="306"/>
+      <c r="Q6" s="306"/>
     </row>
     <row r="7" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="216" t="s">
@@ -8036,14 +8102,14 @@
         <v>327</v>
       </c>
       <c r="K8" s="294"/>
-      <c r="L8" s="308" t="s">
+      <c r="L8" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="308"/>
-      <c r="N8" s="308"/>
-      <c r="O8" s="308"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="308"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="306"/>
+      <c r="O8" s="306"/>
+      <c r="P8" s="306"/>
+      <c r="Q8" s="306"/>
     </row>
     <row r="9" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="213" t="s">
@@ -8077,14 +8143,14 @@
         <v>20</v>
       </c>
       <c r="K9" s="295"/>
-      <c r="L9" s="309" t="s">
+      <c r="L9" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="309"/>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="309"/>
+      <c r="M9" s="307"/>
+      <c r="N9" s="307"/>
+      <c r="O9" s="307"/>
+      <c r="P9" s="307"/>
+      <c r="Q9" s="307"/>
     </row>
     <row r="10" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="214" t="s">
@@ -8204,14 +8270,14 @@
         <v>330</v>
       </c>
       <c r="K12" s="297"/>
-      <c r="L12" s="308" t="s">
+      <c r="L12" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="308"/>
-      <c r="N12" s="308"/>
-      <c r="O12" s="308"/>
-      <c r="P12" s="308"/>
-      <c r="Q12" s="308"/>
+      <c r="M12" s="306"/>
+      <c r="N12" s="306"/>
+      <c r="O12" s="306"/>
+      <c r="P12" s="306"/>
+      <c r="Q12" s="306"/>
     </row>
     <row r="13" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="216" t="s">
@@ -8288,14 +8354,14 @@
         <v>332</v>
       </c>
       <c r="K14" s="294"/>
-      <c r="L14" s="308" t="s">
+      <c r="L14" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="308"/>
-      <c r="N14" s="308"/>
-      <c r="O14" s="308"/>
-      <c r="P14" s="308"/>
-      <c r="Q14" s="308"/>
+      <c r="M14" s="306"/>
+      <c r="N14" s="306"/>
+      <c r="O14" s="306"/>
+      <c r="P14" s="306"/>
+      <c r="Q14" s="306"/>
     </row>
     <row r="15" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="213" t="s">
@@ -8329,14 +8395,14 @@
         <v>20</v>
       </c>
       <c r="K15" s="295"/>
-      <c r="L15" s="309" t="s">
+      <c r="L15" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="309"/>
+      <c r="M15" s="307"/>
+      <c r="N15" s="307"/>
+      <c r="O15" s="307"/>
+      <c r="P15" s="307"/>
+      <c r="Q15" s="307"/>
     </row>
     <row r="16" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="214" t="s">
@@ -8456,14 +8522,14 @@
         <v>335</v>
       </c>
       <c r="K18" s="297"/>
-      <c r="L18" s="308" t="s">
+      <c r="L18" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="308"/>
-      <c r="N18" s="308"/>
-      <c r="O18" s="308"/>
-      <c r="P18" s="308"/>
-      <c r="Q18" s="308"/>
+      <c r="M18" s="306"/>
+      <c r="N18" s="306"/>
+      <c r="O18" s="306"/>
+      <c r="P18" s="306"/>
+      <c r="Q18" s="306"/>
     </row>
     <row r="19" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="216" t="s">
@@ -8540,14 +8606,14 @@
         <v>337</v>
       </c>
       <c r="K20" s="294"/>
-      <c r="L20" s="308" t="s">
+      <c r="L20" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="308"/>
-      <c r="N20" s="308"/>
-      <c r="O20" s="308"/>
-      <c r="P20" s="308"/>
-      <c r="Q20" s="308"/>
+      <c r="M20" s="306"/>
+      <c r="N20" s="306"/>
+      <c r="O20" s="306"/>
+      <c r="P20" s="306"/>
+      <c r="Q20" s="306"/>
     </row>
     <row r="21" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="213" t="s">
@@ -8581,14 +8647,14 @@
         <v>20</v>
       </c>
       <c r="K21" s="295"/>
-      <c r="L21" s="309" t="s">
+      <c r="L21" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="309"/>
-      <c r="N21" s="309"/>
-      <c r="O21" s="309"/>
-      <c r="P21" s="309"/>
-      <c r="Q21" s="309"/>
+      <c r="M21" s="307"/>
+      <c r="N21" s="307"/>
+      <c r="O21" s="307"/>
+      <c r="P21" s="307"/>
+      <c r="Q21" s="307"/>
     </row>
     <row r="22" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="214" t="s">
@@ -8708,14 +8774,14 @@
         <v>340</v>
       </c>
       <c r="K24" s="297"/>
-      <c r="L24" s="308" t="s">
+      <c r="L24" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="308"/>
-      <c r="N24" s="308"/>
-      <c r="O24" s="308"/>
-      <c r="P24" s="308"/>
-      <c r="Q24" s="308"/>
+      <c r="M24" s="306"/>
+      <c r="N24" s="306"/>
+      <c r="O24" s="306"/>
+      <c r="P24" s="306"/>
+      <c r="Q24" s="306"/>
     </row>
     <row r="25" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="216" t="s">
@@ -8792,14 +8858,14 @@
         <v>342</v>
       </c>
       <c r="K26" s="294"/>
-      <c r="L26" s="308" t="s">
+      <c r="L26" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="308"/>
-      <c r="N26" s="308"/>
-      <c r="O26" s="308"/>
-      <c r="P26" s="308"/>
-      <c r="Q26" s="308"/>
+      <c r="M26" s="306"/>
+      <c r="N26" s="306"/>
+      <c r="O26" s="306"/>
+      <c r="P26" s="306"/>
+      <c r="Q26" s="306"/>
     </row>
     <row r="27" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="213" t="s">
@@ -8833,14 +8899,14 @@
         <v>20</v>
       </c>
       <c r="K27" s="295"/>
-      <c r="L27" s="309" t="s">
+      <c r="L27" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="309"/>
-      <c r="N27" s="309"/>
-      <c r="O27" s="309"/>
-      <c r="P27" s="309"/>
-      <c r="Q27" s="309"/>
+      <c r="M27" s="307"/>
+      <c r="N27" s="307"/>
+      <c r="O27" s="307"/>
+      <c r="P27" s="307"/>
+      <c r="Q27" s="307"/>
     </row>
     <row r="28" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="214" t="s">
@@ -8960,14 +9026,14 @@
         <v>345</v>
       </c>
       <c r="K30" s="297"/>
-      <c r="L30" s="308" t="s">
+      <c r="L30" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="308"/>
-      <c r="N30" s="308"/>
-      <c r="O30" s="308"/>
-      <c r="P30" s="308"/>
-      <c r="Q30" s="308"/>
+      <c r="M30" s="306"/>
+      <c r="N30" s="306"/>
+      <c r="O30" s="306"/>
+      <c r="P30" s="306"/>
+      <c r="Q30" s="306"/>
     </row>
     <row r="31" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="216" t="s">
@@ -9046,14 +9112,14 @@
       <c r="K32" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L32" s="308" t="s">
+      <c r="L32" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="308"/>
-      <c r="N32" s="308"/>
-      <c r="O32" s="308"/>
-      <c r="P32" s="308"/>
-      <c r="Q32" s="308"/>
+      <c r="M32" s="306"/>
+      <c r="N32" s="306"/>
+      <c r="O32" s="306"/>
+      <c r="P32" s="306"/>
+      <c r="Q32" s="306"/>
     </row>
     <row r="33" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="218" t="s">
@@ -9132,14 +9198,14 @@
       <c r="K34" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="308" t="s">
+      <c r="L34" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="308"/>
-      <c r="N34" s="308"/>
-      <c r="O34" s="308"/>
-      <c r="P34" s="308"/>
-      <c r="Q34" s="308"/>
+      <c r="M34" s="306"/>
+      <c r="N34" s="306"/>
+      <c r="O34" s="306"/>
+      <c r="P34" s="306"/>
+      <c r="Q34" s="306"/>
     </row>
     <row r="35" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="218" t="s">
@@ -9218,14 +9284,14 @@
       <c r="K36" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L36" s="308" t="s">
+      <c r="L36" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M36" s="308"/>
-      <c r="N36" s="308"/>
-      <c r="O36" s="308"/>
-      <c r="P36" s="308"/>
-      <c r="Q36" s="308"/>
+      <c r="M36" s="306"/>
+      <c r="N36" s="306"/>
+      <c r="O36" s="306"/>
+      <c r="P36" s="306"/>
+      <c r="Q36" s="306"/>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="218" t="s">
@@ -9304,14 +9370,14 @@
       <c r="K38" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L38" s="308" t="s">
+      <c r="L38" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="308"/>
-      <c r="N38" s="308"/>
-      <c r="O38" s="308"/>
-      <c r="P38" s="308"/>
-      <c r="Q38" s="308"/>
+      <c r="M38" s="306"/>
+      <c r="N38" s="306"/>
+      <c r="O38" s="306"/>
+      <c r="P38" s="306"/>
+      <c r="Q38" s="306"/>
     </row>
     <row r="39" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="218" t="s">
@@ -9390,14 +9456,14 @@
       <c r="K40" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L40" s="308" t="s">
+      <c r="L40" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M40" s="308"/>
-      <c r="N40" s="308"/>
-      <c r="O40" s="308"/>
-      <c r="P40" s="308"/>
-      <c r="Q40" s="308"/>
+      <c r="M40" s="306"/>
+      <c r="N40" s="306"/>
+      <c r="O40" s="306"/>
+      <c r="P40" s="306"/>
+      <c r="Q40" s="306"/>
     </row>
     <row r="41" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="267" t="s">
@@ -9433,14 +9499,14 @@
       <c r="K41" s="302" t="s">
         <v>409</v>
       </c>
-      <c r="L41" s="308" t="s">
+      <c r="L41" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M41" s="308"/>
-      <c r="N41" s="308"/>
-      <c r="O41" s="308"/>
-      <c r="P41" s="308"/>
-      <c r="Q41" s="308"/>
+      <c r="M41" s="306"/>
+      <c r="N41" s="306"/>
+      <c r="O41" s="306"/>
+      <c r="P41" s="306"/>
+      <c r="Q41" s="306"/>
     </row>
     <row r="42" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="219" t="s">
@@ -9476,14 +9542,14 @@
       <c r="K42" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="308" t="s">
+      <c r="L42" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="308"/>
-      <c r="N42" s="308"/>
-      <c r="O42" s="308"/>
-      <c r="P42" s="308"/>
-      <c r="Q42" s="308"/>
+      <c r="M42" s="306"/>
+      <c r="N42" s="306"/>
+      <c r="O42" s="306"/>
+      <c r="P42" s="306"/>
+      <c r="Q42" s="306"/>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="267" t="s">
@@ -9519,14 +9585,14 @@
       <c r="K43" s="302" t="s">
         <v>409</v>
       </c>
-      <c r="L43" s="308" t="s">
+      <c r="L43" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="308"/>
-      <c r="N43" s="308"/>
-      <c r="O43" s="308"/>
-      <c r="P43" s="308"/>
-      <c r="Q43" s="308"/>
+      <c r="M43" s="306"/>
+      <c r="N43" s="306"/>
+      <c r="O43" s="306"/>
+      <c r="P43" s="306"/>
+      <c r="Q43" s="306"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="219" t="s">
@@ -9562,14 +9628,14 @@
       <c r="K44" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L44" s="308" t="s">
+      <c r="L44" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="308"/>
-      <c r="N44" s="308"/>
-      <c r="O44" s="308"/>
-      <c r="P44" s="308"/>
-      <c r="Q44" s="308"/>
+      <c r="M44" s="306"/>
+      <c r="N44" s="306"/>
+      <c r="O44" s="306"/>
+      <c r="P44" s="306"/>
+      <c r="Q44" s="306"/>
     </row>
     <row r="45" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="267" t="s">
@@ -9605,14 +9671,14 @@
       <c r="K45" s="302" t="s">
         <v>409</v>
       </c>
-      <c r="L45" s="308" t="s">
+      <c r="L45" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="308"/>
-      <c r="N45" s="308"/>
-      <c r="O45" s="308"/>
-      <c r="P45" s="308"/>
-      <c r="Q45" s="308"/>
+      <c r="M45" s="306"/>
+      <c r="N45" s="306"/>
+      <c r="O45" s="306"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="306"/>
     </row>
     <row r="46" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="219" t="s">
@@ -9648,14 +9714,14 @@
       <c r="K46" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L46" s="308" t="s">
+      <c r="L46" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="308"/>
-      <c r="N46" s="308"/>
-      <c r="O46" s="308"/>
-      <c r="P46" s="308"/>
-      <c r="Q46" s="308"/>
+      <c r="M46" s="306"/>
+      <c r="N46" s="306"/>
+      <c r="O46" s="306"/>
+      <c r="P46" s="306"/>
+      <c r="Q46" s="306"/>
     </row>
     <row r="47" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="267" t="s">
@@ -9691,14 +9757,14 @@
       <c r="K47" s="302" t="s">
         <v>409</v>
       </c>
-      <c r="L47" s="308" t="s">
+      <c r="L47" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M47" s="308"/>
-      <c r="N47" s="308"/>
-      <c r="O47" s="308"/>
-      <c r="P47" s="308"/>
-      <c r="Q47" s="308"/>
+      <c r="M47" s="306"/>
+      <c r="N47" s="306"/>
+      <c r="O47" s="306"/>
+      <c r="P47" s="306"/>
+      <c r="Q47" s="306"/>
     </row>
     <row r="48" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="219" t="s">
@@ -9734,14 +9800,14 @@
       <c r="K48" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L48" s="308" t="s">
+      <c r="L48" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M48" s="308"/>
-      <c r="N48" s="308"/>
-      <c r="O48" s="308"/>
-      <c r="P48" s="308"/>
-      <c r="Q48" s="308"/>
+      <c r="M48" s="306"/>
+      <c r="N48" s="306"/>
+      <c r="O48" s="306"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="306"/>
     </row>
     <row r="49" spans="1:17" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="267" t="s">
@@ -9777,14 +9843,14 @@
       <c r="K49" s="302" t="s">
         <v>409</v>
       </c>
-      <c r="L49" s="308" t="s">
+      <c r="L49" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="308"/>
-      <c r="N49" s="308"/>
-      <c r="O49" s="308"/>
-      <c r="P49" s="308"/>
-      <c r="Q49" s="308"/>
+      <c r="M49" s="306"/>
+      <c r="N49" s="306"/>
+      <c r="O49" s="306"/>
+      <c r="P49" s="306"/>
+      <c r="Q49" s="306"/>
     </row>
     <row r="50" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="220" t="s">
@@ -9820,14 +9886,14 @@
       <c r="K50" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="L50" s="308" t="s">
+      <c r="L50" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M50" s="308"/>
-      <c r="N50" s="308"/>
-      <c r="O50" s="308"/>
-      <c r="P50" s="308"/>
-      <c r="Q50" s="308"/>
+      <c r="M50" s="306"/>
+      <c r="N50" s="306"/>
+      <c r="O50" s="306"/>
+      <c r="P50" s="306"/>
+      <c r="Q50" s="306"/>
     </row>
     <row r="51" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="221" t="s">
@@ -9861,14 +9927,14 @@
         <v>6</v>
       </c>
       <c r="K51" s="303"/>
-      <c r="L51" s="309" t="s">
+      <c r="L51" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M51" s="309"/>
-      <c r="N51" s="309"/>
-      <c r="O51" s="309"/>
-      <c r="P51" s="309"/>
-      <c r="Q51" s="309"/>
+      <c r="M51" s="307"/>
+      <c r="N51" s="307"/>
+      <c r="O51" s="307"/>
+      <c r="P51" s="307"/>
+      <c r="Q51" s="307"/>
     </row>
     <row r="52" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="214" t="s">
@@ -9988,14 +10054,14 @@
         <v>166</v>
       </c>
       <c r="K54" s="297"/>
-      <c r="L54" s="308" t="s">
+      <c r="L54" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M54" s="308"/>
-      <c r="N54" s="308"/>
-      <c r="O54" s="308"/>
-      <c r="P54" s="308"/>
-      <c r="Q54" s="308"/>
+      <c r="M54" s="306"/>
+      <c r="N54" s="306"/>
+      <c r="O54" s="306"/>
+      <c r="P54" s="306"/>
+      <c r="Q54" s="306"/>
     </row>
     <row r="55" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="218" t="s">
@@ -10074,14 +10140,14 @@
       <c r="K56" s="304" t="s">
         <v>145</v>
       </c>
-      <c r="L56" s="308" t="s">
+      <c r="L56" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M56" s="308"/>
-      <c r="N56" s="308"/>
-      <c r="O56" s="308"/>
-      <c r="P56" s="308"/>
-      <c r="Q56" s="308"/>
+      <c r="M56" s="306"/>
+      <c r="N56" s="306"/>
+      <c r="O56" s="306"/>
+      <c r="P56" s="306"/>
+      <c r="Q56" s="306"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="221" t="s">
@@ -10115,14 +10181,14 @@
         <v>20</v>
       </c>
       <c r="K57" s="303"/>
-      <c r="L57" s="309" t="s">
+      <c r="L57" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="309"/>
-      <c r="N57" s="309"/>
-      <c r="O57" s="309"/>
-      <c r="P57" s="309"/>
-      <c r="Q57" s="309"/>
+      <c r="M57" s="307"/>
+      <c r="N57" s="307"/>
+      <c r="O57" s="307"/>
+      <c r="P57" s="307"/>
+      <c r="Q57" s="307"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="214" t="s">
@@ -10330,14 +10396,14 @@
       <c r="K62" s="304" t="s">
         <v>145</v>
       </c>
-      <c r="L62" s="308" t="s">
+      <c r="L62" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M62" s="308"/>
-      <c r="N62" s="308"/>
-      <c r="O62" s="308"/>
-      <c r="P62" s="308"/>
-      <c r="Q62" s="308"/>
+      <c r="M62" s="306"/>
+      <c r="N62" s="306"/>
+      <c r="O62" s="306"/>
+      <c r="P62" s="306"/>
+      <c r="Q62" s="306"/>
     </row>
     <row r="63" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="221" t="s">
@@ -10371,14 +10437,14 @@
         <v>6</v>
       </c>
       <c r="K63" s="303"/>
-      <c r="L63" s="309" t="s">
+      <c r="L63" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M63" s="309"/>
-      <c r="N63" s="309"/>
-      <c r="O63" s="309"/>
-      <c r="P63" s="309"/>
-      <c r="Q63" s="309"/>
+      <c r="M63" s="307"/>
+      <c r="N63" s="307"/>
+      <c r="O63" s="307"/>
+      <c r="P63" s="307"/>
+      <c r="Q63" s="307"/>
     </row>
     <row r="64" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="214" t="s">
@@ -10586,14 +10652,14 @@
       <c r="K68" s="304" t="s">
         <v>145</v>
       </c>
-      <c r="L68" s="308" t="s">
+      <c r="L68" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M68" s="308"/>
-      <c r="N68" s="308"/>
-      <c r="O68" s="308"/>
-      <c r="P68" s="308"/>
-      <c r="Q68" s="308"/>
+      <c r="M68" s="306"/>
+      <c r="N68" s="306"/>
+      <c r="O68" s="306"/>
+      <c r="P68" s="306"/>
+      <c r="Q68" s="306"/>
     </row>
     <row r="69" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="221" t="s">
@@ -10627,14 +10693,14 @@
         <v>6</v>
       </c>
       <c r="K69" s="303"/>
-      <c r="L69" s="309" t="s">
+      <c r="L69" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M69" s="309"/>
-      <c r="N69" s="309"/>
-      <c r="O69" s="309"/>
-      <c r="P69" s="309"/>
-      <c r="Q69" s="309"/>
+      <c r="M69" s="307"/>
+      <c r="N69" s="307"/>
+      <c r="O69" s="307"/>
+      <c r="P69" s="307"/>
+      <c r="Q69" s="307"/>
     </row>
     <row r="70" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="214" t="s">
@@ -10842,14 +10908,14 @@
       <c r="K74" s="304" t="s">
         <v>145</v>
       </c>
-      <c r="L74" s="308" t="s">
+      <c r="L74" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M74" s="308"/>
-      <c r="N74" s="308"/>
-      <c r="O74" s="308"/>
-      <c r="P74" s="308"/>
-      <c r="Q74" s="308"/>
+      <c r="M74" s="306"/>
+      <c r="N74" s="306"/>
+      <c r="O74" s="306"/>
+      <c r="P74" s="306"/>
+      <c r="Q74" s="306"/>
     </row>
     <row r="75" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="221" t="s">
@@ -10883,14 +10949,14 @@
         <v>6</v>
       </c>
       <c r="K75" s="303"/>
-      <c r="L75" s="309" t="s">
+      <c r="L75" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M75" s="309"/>
-      <c r="N75" s="309"/>
-      <c r="O75" s="309"/>
-      <c r="P75" s="309"/>
-      <c r="Q75" s="309"/>
+      <c r="M75" s="307"/>
+      <c r="N75" s="307"/>
+      <c r="O75" s="307"/>
+      <c r="P75" s="307"/>
+      <c r="Q75" s="307"/>
     </row>
     <row r="76" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="214" t="s">
@@ -11064,7 +11130,7 @@
       <c r="P79" s="292"/>
       <c r="Q79" s="292"/>
     </row>
-    <row r="80" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="220" t="s">
         <v>262</v>
       </c>
@@ -11095,27 +11161,27 @@
       <c r="J80" s="279" t="s">
         <v>290</v>
       </c>
-      <c r="K80" s="299"/>
-      <c r="L80" s="308" t="s">
+      <c r="K80" s="279"/>
+      <c r="L80" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M80" s="308" t="s">
+      <c r="M80" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N80" s="308" t="s">
+      <c r="N80" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O80" s="308" t="s">
+      <c r="O80" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P80" s="308" t="s">
+      <c r="P80" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q80" s="308" t="s">
+      <c r="Q80" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="81" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="221" t="s">
         <v>262</v>
       </c>
@@ -11146,23 +11212,27 @@
       <c r="J81" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="K81" s="303"/>
-      <c r="L81" s="309" t="s">
+      <c r="K81" s="280"/>
+      <c r="L81" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M81" s="309" t="s">
+      <c r="M81" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N81" s="309" t="s">
+      <c r="N81" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="O81" s="309" t="s">
+      <c r="O81" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="P81" s="292"/>
-      <c r="Q81" s="292"/>
-    </row>
-    <row r="82" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="P81" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q81" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="223" t="s">
         <v>393</v>
       </c>
@@ -11193,21 +11263,29 @@
       <c r="J82" s="281" t="s">
         <v>289</v>
       </c>
-      <c r="K82" s="296" t="s">
-        <v>145</v>
-      </c>
-      <c r="L82" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M82" s="292"/>
-      <c r="N82" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O82" s="292"/>
-      <c r="P82" s="292"/>
-      <c r="Q82" s="292"/>
-    </row>
-    <row r="83" spans="1:17" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="K82" s="281" t="s">
+        <v>491</v>
+      </c>
+      <c r="L82" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N82" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O82" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P82" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q82" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="223" t="s">
         <v>262</v>
       </c>
@@ -11238,23 +11316,29 @@
       <c r="J83" s="281" t="s">
         <v>443</v>
       </c>
-      <c r="K83" s="296" t="s">
-        <v>145</v>
-      </c>
-      <c r="L83" s="333" t="s">
-        <v>479</v>
-      </c>
-      <c r="M83" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="N83" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O83" s="292"/>
-      <c r="P83" s="292"/>
-      <c r="Q83" s="292"/>
-    </row>
-    <row r="84" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K83" s="281" t="s">
+        <v>491</v>
+      </c>
+      <c r="L83" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N83" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O83" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P83" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q83" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="215" t="s">
         <v>262</v>
       </c>
@@ -11285,21 +11369,25 @@
       <c r="J84" s="277" t="s">
         <v>440</v>
       </c>
-      <c r="K84" s="297"/>
-      <c r="L84" s="308" t="s">
+      <c r="K84" s="277"/>
+      <c r="L84" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M84" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="N84" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O84" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="P84" s="292"/>
-      <c r="Q84" s="292"/>
+      <c r="M84" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N84" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O84" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q84" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="85" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="222" t="s">
@@ -11332,21 +11420,27 @@
       <c r="J85" s="288" t="s">
         <v>444</v>
       </c>
-      <c r="K85" s="305" t="s">
-        <v>145</v>
+      <c r="K85" s="288" t="s">
+        <v>491</v>
       </c>
       <c r="L85" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M85" s="332" t="s">
+      <c r="M85" s="332">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="N85" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N85" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O85" s="292"/>
-      <c r="P85" s="292"/>
-      <c r="Q85" s="292"/>
+      <c r="O85" s="333">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="P85" s="333">
+        <v>0.61527777777777781</v>
+      </c>
+      <c r="Q85" s="334">
+        <v>45392</v>
+      </c>
     </row>
     <row r="86" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="222" t="s">
@@ -11379,21 +11473,29 @@
       <c r="J86" s="288" t="s">
         <v>288</v>
       </c>
-      <c r="K86" s="305" t="s">
-        <v>145</v>
+      <c r="K86" s="288" t="s">
+        <v>491</v>
       </c>
       <c r="L86" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M86" s="292"/>
-      <c r="N86" s="308" t="s">
+      <c r="M86" s="333">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="N86" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O86" s="292"/>
-      <c r="P86" s="292"/>
-      <c r="Q86" s="292"/>
-    </row>
-    <row r="87" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="O86" s="333">
+        <v>0.61736111111111114</v>
+      </c>
+      <c r="P86" s="333">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="Q86" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="224" t="s">
         <v>393</v>
       </c>
@@ -11424,21 +11526,29 @@
       <c r="J87" s="282" t="s">
         <v>287</v>
       </c>
-      <c r="K87" s="306" t="s">
-        <v>145</v>
-      </c>
-      <c r="L87" s="333" t="s">
-        <v>475</v>
-      </c>
-      <c r="M87" s="292"/>
-      <c r="N87" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O87" s="292"/>
-      <c r="P87" s="292"/>
-      <c r="Q87" s="292"/>
-    </row>
-    <row r="88" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K87" s="282" t="s">
+        <v>491</v>
+      </c>
+      <c r="L87" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N87" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O87" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="220" t="s">
         <v>262</v>
       </c>
@@ -11469,27 +11579,27 @@
       <c r="J88" s="279" t="s">
         <v>286</v>
       </c>
-      <c r="K88" s="299"/>
-      <c r="L88" s="308" t="s">
+      <c r="K88" s="279"/>
+      <c r="L88" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M88" s="308" t="s">
+      <c r="M88" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N88" s="308" t="s">
+      <c r="N88" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O88" s="308" t="s">
+      <c r="O88" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P88" s="308" t="s">
+      <c r="P88" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q88" s="308" t="s">
+      <c r="Q88" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="89" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="221" t="s">
         <v>262</v>
       </c>
@@ -11520,23 +11630,27 @@
       <c r="J89" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="K89" s="303"/>
-      <c r="L89" s="309" t="s">
+      <c r="K89" s="280"/>
+      <c r="L89" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M89" s="309" t="s">
+      <c r="M89" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N89" s="309" t="s">
+      <c r="N89" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="O89" s="309" t="s">
+      <c r="O89" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="P89" s="292"/>
-      <c r="Q89" s="292"/>
-    </row>
-    <row r="90" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="P89" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q89" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="223" t="s">
         <v>393</v>
       </c>
@@ -11567,21 +11681,29 @@
       <c r="J90" s="281" t="s">
         <v>285</v>
       </c>
-      <c r="K90" s="296" t="s">
-        <v>145</v>
-      </c>
-      <c r="L90" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M90" s="292"/>
-      <c r="N90" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O90" s="292"/>
-      <c r="P90" s="292"/>
-      <c r="Q90" s="292"/>
-    </row>
-    <row r="91" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K90" s="281" t="s">
+        <v>491</v>
+      </c>
+      <c r="L90" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N90" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O90" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P90" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q90" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="223" t="s">
         <v>262</v>
       </c>
@@ -11612,21 +11734,29 @@
       <c r="J91" s="281" t="s">
         <v>284</v>
       </c>
-      <c r="K91" s="296" t="s">
-        <v>145</v>
-      </c>
-      <c r="L91" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="292"/>
-      <c r="N91" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O91" s="292"/>
-      <c r="P91" s="292"/>
-      <c r="Q91" s="292"/>
-    </row>
-    <row r="92" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K91" s="281" t="s">
+        <v>491</v>
+      </c>
+      <c r="L91" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N91" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O91" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P91" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q91" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="215" t="s">
         <v>262</v>
       </c>
@@ -11657,21 +11787,25 @@
       <c r="J92" s="277" t="s">
         <v>283</v>
       </c>
-      <c r="K92" s="297"/>
-      <c r="L92" s="308" t="s">
+      <c r="K92" s="277"/>
+      <c r="L92" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M92" s="308" t="s">
+      <c r="M92" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N92" s="308" t="s">
+      <c r="N92" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O92" s="308" t="s">
+      <c r="O92" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P92" s="292"/>
-      <c r="Q92" s="292"/>
+      <c r="P92" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q92" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="93" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="222" t="s">
@@ -11704,21 +11838,27 @@
       <c r="J93" s="288" t="s">
         <v>282</v>
       </c>
-      <c r="K93" s="305" t="s">
-        <v>145</v>
+      <c r="K93" s="288" t="s">
+        <v>491</v>
       </c>
       <c r="L93" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M93" s="308" t="s">
+      <c r="M93" s="332">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="N93" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N93" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O93" s="292"/>
-      <c r="P93" s="292"/>
-      <c r="Q93" s="292"/>
+      <c r="O93" s="333">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="P93" s="333">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="Q93" s="334">
+        <v>45392</v>
+      </c>
     </row>
     <row r="94" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="222" t="s">
@@ -11751,21 +11891,29 @@
       <c r="J94" s="288" t="s">
         <v>281</v>
       </c>
-      <c r="K94" s="305" t="s">
-        <v>145</v>
+      <c r="K94" s="288" t="s">
+        <v>491</v>
       </c>
       <c r="L94" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="292"/>
-      <c r="N94" s="308" t="s">
+      <c r="M94" s="333">
+        <v>0.60902777777777783</v>
+      </c>
+      <c r="N94" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O94" s="292"/>
-      <c r="P94" s="292"/>
-      <c r="Q94" s="292"/>
-    </row>
-    <row r="95" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="O94" s="333">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="P94" s="333">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="Q94" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="224" t="s">
         <v>393</v>
       </c>
@@ -11796,21 +11944,29 @@
       <c r="J95" s="282" t="s">
         <v>280</v>
       </c>
-      <c r="K95" s="306" t="s">
-        <v>145</v>
-      </c>
-      <c r="L95" s="333" t="s">
-        <v>475</v>
-      </c>
-      <c r="M95" s="292"/>
-      <c r="N95" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O95" s="292"/>
-      <c r="P95" s="292"/>
-      <c r="Q95" s="292"/>
-    </row>
-    <row r="96" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="K95" s="282" t="s">
+        <v>491</v>
+      </c>
+      <c r="L95" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N95" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O95" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P95" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q95" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="220" t="s">
         <v>393</v>
       </c>
@@ -11841,27 +11997,27 @@
       <c r="J96" s="279" t="s">
         <v>204</v>
       </c>
-      <c r="K96" s="299"/>
-      <c r="L96" s="308" t="s">
+      <c r="K96" s="279"/>
+      <c r="L96" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M96" s="308" t="s">
+      <c r="M96" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N96" s="308" t="s">
+      <c r="N96" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O96" s="308" t="s">
+      <c r="O96" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P96" s="308" t="s">
+      <c r="P96" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q96" s="308" t="s">
+      <c r="Q96" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="97" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="221" t="s">
         <v>393</v>
       </c>
@@ -11892,23 +12048,27 @@
       <c r="J97" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K97" s="303"/>
-      <c r="L97" s="309" t="s">
+      <c r="K97" s="283"/>
+      <c r="L97" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M97" s="309" t="s">
+      <c r="M97" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N97" s="309" t="s">
+      <c r="N97" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="O97" s="309" t="s">
+      <c r="O97" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="P97" s="292"/>
-      <c r="Q97" s="292"/>
-    </row>
-    <row r="98" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="P97" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q97" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="223" t="s">
         <v>393</v>
       </c>
@@ -11939,21 +12099,29 @@
       <c r="J98" s="281" t="s">
         <v>207</v>
       </c>
-      <c r="K98" s="296" t="s">
+      <c r="K98" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="L98" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M98" s="292"/>
-      <c r="N98" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O98" s="292"/>
-      <c r="P98" s="292"/>
-      <c r="Q98" s="292"/>
-    </row>
-    <row r="99" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="L98" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N98" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O98" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P98" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q98" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="223" t="s">
         <v>393</v>
       </c>
@@ -11984,21 +12152,29 @@
       <c r="J99" s="281" t="s">
         <v>208</v>
       </c>
-      <c r="K99" s="296" t="s">
+      <c r="K99" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="L99" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M99" s="292"/>
-      <c r="N99" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O99" s="292"/>
-      <c r="P99" s="292"/>
-      <c r="Q99" s="292"/>
-    </row>
-    <row r="100" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="L99" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N99" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O99" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P99" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q99" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="215" t="s">
         <v>393</v>
       </c>
@@ -12029,17 +12205,25 @@
       <c r="J100" s="277" t="s">
         <v>445</v>
       </c>
-      <c r="K100" s="297"/>
-      <c r="L100" s="333" t="s">
-        <v>479</v>
-      </c>
-      <c r="M100" s="292"/>
-      <c r="N100" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O100" s="292"/>
-      <c r="P100" s="292"/>
-      <c r="Q100" s="292"/>
+      <c r="K100" s="277"/>
+      <c r="L100" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N100" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O100" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P100" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q100" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="101" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="218" t="s">
@@ -12070,23 +12254,31 @@
         <v>167</v>
       </c>
       <c r="J101" s="262" t="s">
-        <v>210</v>
-      </c>
-      <c r="K101" s="300" t="s">
+        <v>496</v>
+      </c>
+      <c r="K101" s="262" t="s">
         <v>145</v>
       </c>
       <c r="L101" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="292"/>
-      <c r="N101" s="308" t="s">
+      <c r="M101" s="333">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="N101" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O101" s="292"/>
-      <c r="P101" s="292"/>
-      <c r="Q101" s="292"/>
-    </row>
-    <row r="102" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="O101" s="333">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="P101" s="333">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="Q101" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="220" t="s">
         <v>393</v>
       </c>
@@ -12117,27 +12309,27 @@
       <c r="J102" s="279" t="s">
         <v>213</v>
       </c>
-      <c r="K102" s="299"/>
-      <c r="L102" s="308" t="s">
+      <c r="K102" s="279"/>
+      <c r="L102" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M102" s="308" t="s">
+      <c r="M102" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N102" s="308" t="s">
+      <c r="N102" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O102" s="308" t="s">
+      <c r="O102" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P102" s="308" t="s">
+      <c r="P102" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q102" s="308" t="s">
+      <c r="Q102" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="103" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="221" t="s">
         <v>393</v>
       </c>
@@ -12168,23 +12360,27 @@
       <c r="J103" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K103" s="303"/>
-      <c r="L103" s="309" t="s">
+      <c r="K103" s="283"/>
+      <c r="L103" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M103" s="309" t="s">
+      <c r="M103" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N103" s="309" t="s">
+      <c r="N103" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="O103" s="309" t="s">
+      <c r="O103" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="P103" s="292"/>
-      <c r="Q103" s="292"/>
-    </row>
-    <row r="104" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="P103" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q103" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="223" t="s">
         <v>393</v>
       </c>
@@ -12215,21 +12411,29 @@
       <c r="J104" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="K104" s="296" t="s">
+      <c r="K104" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="L104" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M104" s="292"/>
-      <c r="N104" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O104" s="292"/>
-      <c r="P104" s="292"/>
-      <c r="Q104" s="292"/>
-    </row>
-    <row r="105" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="L104" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N104" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O104" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P104" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q104" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="223" t="s">
         <v>393</v>
       </c>
@@ -12260,19 +12464,27 @@
       <c r="J105" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="K105" s="296" t="s">
+      <c r="K105" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="L105" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M105" s="292"/>
-      <c r="N105" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O105" s="292"/>
-      <c r="P105" s="292"/>
-      <c r="Q105" s="292"/>
+      <c r="L105" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M105" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N105" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O105" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P105" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q105" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="106" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="222" t="s">
@@ -12303,21 +12515,29 @@
         <v>165</v>
       </c>
       <c r="J106" s="288" t="s">
-        <v>220</v>
-      </c>
-      <c r="K106" s="305" t="s">
+        <v>492</v>
+      </c>
+      <c r="K106" s="288" t="s">
         <v>145</v>
       </c>
       <c r="L106" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M106" s="292"/>
-      <c r="N106" s="308" t="s">
+      <c r="M106" s="333">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="N106" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O106" s="292"/>
-      <c r="P106" s="292"/>
-      <c r="Q106" s="292"/>
+      <c r="O106" s="333">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="P106" s="333">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="Q106" s="334">
+        <v>45392</v>
+      </c>
     </row>
     <row r="107" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="218" t="s">
@@ -12348,23 +12568,31 @@
         <v>167</v>
       </c>
       <c r="J107" s="262" t="s">
-        <v>221</v>
-      </c>
-      <c r="K107" s="300" t="s">
+        <v>497</v>
+      </c>
+      <c r="K107" s="262" t="s">
         <v>145</v>
       </c>
       <c r="L107" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M107" s="292"/>
-      <c r="N107" s="308" t="s">
+      <c r="M107" s="333">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="N107" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O107" s="292"/>
-      <c r="P107" s="292"/>
-      <c r="Q107" s="292"/>
-    </row>
-    <row r="108" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="O107" s="333">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="P107" s="333">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="Q107" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="220" t="s">
         <v>393</v>
       </c>
@@ -12395,27 +12623,27 @@
       <c r="J108" s="279" t="s">
         <v>224</v>
       </c>
-      <c r="K108" s="299"/>
-      <c r="L108" s="308" t="s">
+      <c r="K108" s="279"/>
+      <c r="L108" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M108" s="308" t="s">
+      <c r="M108" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N108" s="308" t="s">
+      <c r="N108" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O108" s="308" t="s">
+      <c r="O108" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P108" s="308" t="s">
+      <c r="P108" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q108" s="308" t="s">
+      <c r="Q108" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="109" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="221" t="s">
         <v>393</v>
       </c>
@@ -12446,21 +12674,27 @@
       <c r="J109" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K109" s="303"/>
-      <c r="L109" s="309" t="s">
+      <c r="K109" s="283"/>
+      <c r="L109" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M109" s="309" t="s">
+      <c r="M109" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N109" s="292"/>
-      <c r="O109" s="309" t="s">
-        <v>442</v>
-      </c>
-      <c r="P109" s="292"/>
-      <c r="Q109" s="292"/>
-    </row>
-    <row r="110" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="N109" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="O109" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="P109" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q109" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="223" t="s">
         <v>393</v>
       </c>
@@ -12491,19 +12725,29 @@
       <c r="J110" s="281" t="s">
         <v>225</v>
       </c>
-      <c r="K110" s="296" t="s">
+      <c r="K110" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="L110" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M110" s="292"/>
-      <c r="N110" s="292"/>
-      <c r="O110" s="292"/>
-      <c r="P110" s="292"/>
-      <c r="Q110" s="292"/>
-    </row>
-    <row r="111" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="L110" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N110" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O110" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P110" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q110" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="223" t="s">
         <v>393</v>
       </c>
@@ -12534,17 +12778,27 @@
       <c r="J111" s="281" t="s">
         <v>227</v>
       </c>
-      <c r="K111" s="296" t="s">
+      <c r="K111" s="281" t="s">
         <v>145</v>
       </c>
-      <c r="L111" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M111" s="292"/>
-      <c r="N111" s="292"/>
-      <c r="O111" s="292"/>
-      <c r="P111" s="292"/>
-      <c r="Q111" s="292"/>
+      <c r="L111" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N111" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O111" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P111" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q111" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="112" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="218" t="s">
@@ -12575,21 +12829,31 @@
         <v>165</v>
       </c>
       <c r="J112" s="262" t="s">
-        <v>228</v>
-      </c>
-      <c r="K112" s="300" t="s">
+        <v>493</v>
+      </c>
+      <c r="K112" s="262" t="s">
         <v>145</v>
       </c>
       <c r="L112" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M112" s="292"/>
-      <c r="N112" s="292"/>
-      <c r="O112" s="292"/>
-      <c r="P112" s="292"/>
-      <c r="Q112" s="292"/>
-    </row>
-    <row r="113" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="M112" s="333">
+        <v>0.61041666666666672</v>
+      </c>
+      <c r="N112" s="333">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="O112" s="333">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="P112" s="333">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="Q112" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="220" t="s">
         <v>393</v>
       </c>
@@ -12620,27 +12884,27 @@
       <c r="J113" s="279" t="s">
         <v>231</v>
       </c>
-      <c r="K113" s="299"/>
-      <c r="L113" s="308" t="s">
+      <c r="K113" s="279"/>
+      <c r="L113" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M113" s="308" t="s">
+      <c r="M113" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N113" s="308" t="s">
+      <c r="N113" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O113" s="308" t="s">
+      <c r="O113" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P113" s="308" t="s">
+      <c r="P113" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q113" s="308" t="s">
+      <c r="Q113" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="114" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="221" t="s">
         <v>393</v>
       </c>
@@ -12671,21 +12935,25 @@
       <c r="J114" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K114" s="303"/>
-      <c r="L114" s="309" t="s">
+      <c r="K114" s="283"/>
+      <c r="L114" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M114" s="309" t="s">
+      <c r="M114" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N114" s="309" t="s">
+      <c r="N114" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="O114" s="309" t="s">
+      <c r="O114" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="P114" s="292"/>
-      <c r="Q114" s="292"/>
+      <c r="P114" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q114" s="307" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="115" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="222" t="s">
@@ -12716,23 +12984,31 @@
         <v>161</v>
       </c>
       <c r="J115" s="288" t="s">
-        <v>232</v>
-      </c>
-      <c r="K115" s="305" t="s">
+        <v>499</v>
+      </c>
+      <c r="K115" s="288" t="s">
         <v>145</v>
       </c>
       <c r="L115" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M115" s="292"/>
-      <c r="N115" s="308" t="s">
+      <c r="M115" s="333">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="N115" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O115" s="292"/>
-      <c r="P115" s="292"/>
-      <c r="Q115" s="292"/>
-    </row>
-    <row r="116" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="O115" s="333">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="P115" s="333">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="Q115" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="225" t="s">
         <v>393</v>
       </c>
@@ -12763,19 +13039,27 @@
       <c r="J116" s="284" t="s">
         <v>234</v>
       </c>
-      <c r="K116" s="296" t="s">
+      <c r="K116" s="284" t="s">
         <v>145</v>
       </c>
-      <c r="L116" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M116" s="292"/>
-      <c r="N116" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="O116" s="292"/>
-      <c r="P116" s="292"/>
-      <c r="Q116" s="292"/>
+      <c r="L116" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N116" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O116" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P116" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q116" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="117" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="222" t="s">
@@ -12806,21 +13090,29 @@
         <v>165</v>
       </c>
       <c r="J117" s="288" t="s">
-        <v>235</v>
-      </c>
-      <c r="K117" s="305" t="s">
+        <v>494</v>
+      </c>
+      <c r="K117" s="288" t="s">
         <v>145</v>
       </c>
       <c r="L117" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M117" s="292"/>
-      <c r="N117" s="308" t="s">
+      <c r="M117" s="333">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="N117" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O117" s="292"/>
-      <c r="P117" s="292"/>
-      <c r="Q117" s="292"/>
+      <c r="O117" s="333">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="P117" s="333">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="Q117" s="334">
+        <v>45392</v>
+      </c>
     </row>
     <row r="118" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="218" t="s">
@@ -12851,23 +13143,31 @@
         <v>167</v>
       </c>
       <c r="J118" s="262" t="s">
-        <v>236</v>
-      </c>
-      <c r="K118" s="300" t="s">
+        <v>498</v>
+      </c>
+      <c r="K118" s="262" t="s">
         <v>145</v>
       </c>
       <c r="L118" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M118" s="292"/>
-      <c r="N118" s="308" t="s">
+      <c r="M118" s="333">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="N118" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O118" s="292"/>
-      <c r="P118" s="292"/>
-      <c r="Q118" s="292"/>
-    </row>
-    <row r="119" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="O118" s="333">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="P118" s="333">
+        <v>0.6381944444444444</v>
+      </c>
+      <c r="Q118" s="334">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="220" t="s">
         <v>393</v>
       </c>
@@ -12898,27 +13198,27 @@
       <c r="J119" s="279" t="s">
         <v>238</v>
       </c>
-      <c r="K119" s="299"/>
-      <c r="L119" s="308" t="s">
+      <c r="K119" s="279"/>
+      <c r="L119" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M119" s="308" t="s">
+      <c r="M119" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="N119" s="308" t="s">
+      <c r="N119" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="O119" s="308" t="s">
+      <c r="O119" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="P119" s="308" t="s">
+      <c r="P119" s="306" t="s">
         <v>442</v>
       </c>
-      <c r="Q119" s="308" t="s">
+      <c r="Q119" s="306" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="120" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:17" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="221" t="s">
         <v>393</v>
       </c>
@@ -12949,21 +13249,27 @@
       <c r="J120" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K120" s="303"/>
-      <c r="L120" s="309" t="s">
+      <c r="K120" s="283"/>
+      <c r="L120" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="M120" s="309" t="s">
+      <c r="M120" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="N120" s="292"/>
-      <c r="O120" s="309" t="s">
+      <c r="N120" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="O120" s="307" t="s">
         <v>442</v>
       </c>
-      <c r="P120" s="292"/>
-      <c r="Q120" s="292"/>
-    </row>
-    <row r="121" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="P120" s="307" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q120" s="307" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="215" t="s">
         <v>393</v>
       </c>
@@ -12994,19 +13300,27 @@
       <c r="J121" s="277" t="s">
         <v>446</v>
       </c>
-      <c r="K121" s="297"/>
-      <c r="L121" s="308" t="s">
+      <c r="K121" s="277"/>
+      <c r="L121" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M121" s="292"/>
-      <c r="N121" s="292"/>
-      <c r="O121" s="308" t="s">
-        <v>442</v>
-      </c>
-      <c r="P121" s="292"/>
-      <c r="Q121" s="292"/>
-    </row>
-    <row r="122" spans="1:17" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="M121" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N121" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O121" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P121" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q121" s="306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="225" t="s">
         <v>393</v>
       </c>
@@ -13037,17 +13351,27 @@
       <c r="J122" s="284" t="s">
         <v>240</v>
       </c>
-      <c r="K122" s="296" t="s">
+      <c r="K122" s="284" t="s">
         <v>145</v>
       </c>
-      <c r="L122" s="292" t="s">
-        <v>3</v>
-      </c>
-      <c r="M122" s="292"/>
-      <c r="N122" s="292"/>
-      <c r="O122" s="292"/>
-      <c r="P122" s="292"/>
-      <c r="Q122" s="292"/>
+      <c r="L122" s="306" t="s">
+        <v>7</v>
+      </c>
+      <c r="M122" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="N122" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="O122" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="P122" s="306" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q122" s="306" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="123" spans="1:17" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="226" t="s">
@@ -13077,20 +13401,30 @@
       <c r="I123" s="242" t="s">
         <v>315</v>
       </c>
-      <c r="J123" s="334" t="s">
-        <v>241</v>
-      </c>
-      <c r="K123" s="307" t="s">
+      <c r="J123" s="308" t="s">
+        <v>495</v>
+      </c>
+      <c r="K123" s="308" t="s">
         <v>145</v>
       </c>
       <c r="L123" s="292" t="s">
         <v>3</v>
       </c>
-      <c r="M123" s="292"/>
-      <c r="N123" s="292"/>
-      <c r="O123" s="292"/>
-      <c r="P123" s="292"/>
-      <c r="Q123" s="292"/>
+      <c r="M123" s="333">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="N123" s="333">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="O123" s="333">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="P123" s="333">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="Q123" s="334">
+        <v>45392</v>
+      </c>
     </row>
     <row r="124" spans="1:17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E124" s="211"/>
@@ -13106,6 +13440,11 @@
       <filters>
         <filter val="開発"/>
         <filter val="検証"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="要"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13123,6 +13462,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13131,8 +13471,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13177,16 +13517,16 @@
       <c r="F2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="331" t="s">
+      <c r="I2" s="310" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="331"/>
-      <c r="K2" s="331"/>
-      <c r="O2" s="331" t="s">
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="O2" s="310" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="331"/>
-      <c r="Q2" s="331"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
     </row>
     <row r="3" spans="1:18" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="7" t="s">
@@ -13243,13 +13583,13 @@
     </row>
     <row r="4" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
-      <c r="B4" s="316" t="s">
+      <c r="B4" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="319" t="s">
+      <c r="C4" s="315" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="328" t="s">
+      <c r="D4" s="323" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -13264,7 +13604,7 @@
       <c r="H4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="329" t="s">
+      <c r="I4" s="324" t="s">
         <v>119</v>
       </c>
       <c r="J4" s="21" t="s">
@@ -13293,9 +13633,9 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
-      <c r="B5" s="316"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="328"/>
+      <c r="B5" s="312"/>
+      <c r="C5" s="315"/>
+      <c r="D5" s="323"/>
       <c r="E5" s="29" t="s">
         <v>123</v>
       </c>
@@ -13308,7 +13648,7 @@
       <c r="H5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="330"/>
+      <c r="I5" s="325"/>
       <c r="J5" s="32" t="s">
         <v>125</v>
       </c>
@@ -13335,9 +13675,9 @@
     </row>
     <row r="6" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
-      <c r="B6" s="317"/>
-      <c r="C6" s="320"/>
-      <c r="D6" s="325"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="311"/>
       <c r="E6" s="40" t="s">
         <v>126</v>
       </c>
@@ -13350,7 +13690,7 @@
       <c r="H6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="326"/>
+      <c r="I6" s="321"/>
       <c r="J6" s="44" t="s">
         <v>29</v>
       </c>
@@ -13379,9 +13719,9 @@
     </row>
     <row r="7" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
-      <c r="B7" s="317"/>
-      <c r="C7" s="320"/>
-      <c r="D7" s="325"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="311"/>
       <c r="E7" s="40" t="s">
         <v>27</v>
       </c>
@@ -13394,7 +13734,7 @@
       <c r="H7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="326"/>
+      <c r="I7" s="321"/>
       <c r="J7" s="52" t="s">
         <v>31</v>
       </c>
@@ -13423,9 +13763,9 @@
     </row>
     <row r="8" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
-      <c r="B8" s="317"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="325"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="311"/>
       <c r="E8" s="53" t="s">
         <v>136</v>
       </c>
@@ -13438,7 +13778,7 @@
       <c r="H8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="326"/>
+      <c r="I8" s="321"/>
       <c r="J8" s="57" t="s">
         <v>138</v>
       </c>
@@ -13465,9 +13805,9 @@
     </row>
     <row r="9" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
-      <c r="B9" s="317"/>
-      <c r="C9" s="320"/>
-      <c r="D9" s="325"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="316"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="65" t="s">
         <v>126</v>
       </c>
@@ -13480,7 +13820,7 @@
       <c r="H9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="326"/>
+      <c r="I9" s="321"/>
       <c r="J9" s="69" t="s">
         <v>33</v>
       </c>
@@ -13509,9 +13849,9 @@
     </row>
     <row r="10" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="77"/>
-      <c r="B10" s="317"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="325"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="316"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="78" t="s">
         <v>146</v>
       </c>
@@ -13524,7 +13864,7 @@
       <c r="H10" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="327" t="s">
+      <c r="I10" s="322" t="s">
         <v>148</v>
       </c>
       <c r="J10" s="81" t="s">
@@ -13555,9 +13895,9 @@
     </row>
     <row r="11" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
-      <c r="B11" s="317"/>
-      <c r="C11" s="320"/>
-      <c r="D11" s="325"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="311"/>
       <c r="E11" s="90" t="s">
         <v>151</v>
       </c>
@@ -13570,7 +13910,7 @@
       <c r="H11" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="326"/>
+      <c r="I11" s="321"/>
       <c r="J11" s="93" t="s">
         <v>152</v>
       </c>
@@ -13599,9 +13939,9 @@
     </row>
     <row r="12" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="77"/>
-      <c r="B12" s="317"/>
-      <c r="C12" s="320"/>
-      <c r="D12" s="325" t="s">
+      <c r="B12" s="313"/>
+      <c r="C12" s="316"/>
+      <c r="D12" s="311" t="s">
         <v>155</v>
       </c>
       <c r="E12" s="78" t="s">
@@ -13616,7 +13956,7 @@
       <c r="H12" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="326" t="s">
+      <c r="I12" s="321" t="s">
         <v>157</v>
       </c>
       <c r="J12" s="81" t="s">
@@ -13649,9 +13989,9 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
-      <c r="B13" s="317"/>
-      <c r="C13" s="320"/>
-      <c r="D13" s="325"/>
+      <c r="B13" s="313"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="311"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
       <c r="G13" s="97" t="s">
@@ -13660,7 +14000,7 @@
       <c r="H13" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="326"/>
+      <c r="I13" s="321"/>
       <c r="J13" s="99" t="s">
         <v>1</v>
       </c>
@@ -13687,9 +14027,9 @@
     </row>
     <row r="14" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="325"/>
+      <c r="B14" s="313"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="311"/>
       <c r="E14" s="107" t="s">
         <v>126</v>
       </c>
@@ -13702,7 +14042,7 @@
       <c r="H14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="326"/>
+      <c r="I14" s="321"/>
       <c r="J14" s="44" t="s">
         <v>29</v>
       </c>
@@ -13731,9 +14071,9 @@
     </row>
     <row r="15" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
-      <c r="B15" s="317"/>
-      <c r="C15" s="320"/>
-      <c r="D15" s="325"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="311"/>
       <c r="E15" s="107" t="s">
         <v>27</v>
       </c>
@@ -13746,7 +14086,7 @@
       <c r="H15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="326"/>
+      <c r="I15" s="321"/>
       <c r="J15" s="44" t="s">
         <v>31</v>
       </c>
@@ -13775,9 +14115,9 @@
     </row>
     <row r="16" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
-      <c r="B16" s="317"/>
-      <c r="C16" s="320"/>
-      <c r="D16" s="325"/>
+      <c r="B16" s="313"/>
+      <c r="C16" s="316"/>
+      <c r="D16" s="311"/>
       <c r="E16" s="54" t="s">
         <v>136</v>
       </c>
@@ -13790,7 +14130,7 @@
       <c r="H16" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="326"/>
+      <c r="I16" s="321"/>
       <c r="J16" s="57" t="s">
         <v>46</v>
       </c>
@@ -13817,9 +14157,9 @@
     </row>
     <row r="17" spans="1:18" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
-      <c r="B17" s="317"/>
-      <c r="C17" s="320"/>
-      <c r="D17" s="325"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="316"/>
+      <c r="D17" s="311"/>
       <c r="E17" s="90" t="s">
         <v>151</v>
       </c>
@@ -13832,7 +14172,7 @@
       <c r="H17" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="326"/>
+      <c r="I17" s="321"/>
       <c r="J17" s="93" t="s">
         <v>39</v>
       </c>
@@ -13861,9 +14201,9 @@
     </row>
     <row r="18" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="77"/>
-      <c r="B18" s="317"/>
-      <c r="C18" s="320"/>
-      <c r="D18" s="325" t="s">
+      <c r="B18" s="313"/>
+      <c r="C18" s="316"/>
+      <c r="D18" s="311" t="s">
         <v>169</v>
       </c>
       <c r="E18" s="78" t="s">
@@ -13878,7 +14218,7 @@
       <c r="H18" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="327" t="s">
+      <c r="I18" s="322" t="s">
         <v>170</v>
       </c>
       <c r="J18" s="81" t="s">
@@ -13911,9 +14251,9 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
-      <c r="B19" s="317"/>
-      <c r="C19" s="320"/>
-      <c r="D19" s="325"/>
+      <c r="B19" s="313"/>
+      <c r="C19" s="316"/>
+      <c r="D19" s="311"/>
       <c r="E19" s="96"/>
       <c r="F19" s="96"/>
       <c r="G19" s="97" t="s">
@@ -13922,7 +14262,7 @@
       <c r="H19" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="326"/>
+      <c r="I19" s="321"/>
       <c r="J19" s="99" t="s">
         <v>1</v>
       </c>
@@ -13949,9 +14289,9 @@
     </row>
     <row r="20" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
-      <c r="B20" s="317"/>
-      <c r="C20" s="320"/>
-      <c r="D20" s="325"/>
+      <c r="B20" s="313"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="311"/>
       <c r="E20" s="107" t="s">
         <v>126</v>
       </c>
@@ -13964,7 +14304,7 @@
       <c r="H20" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="326"/>
+      <c r="I20" s="321"/>
       <c r="J20" s="44" t="s">
         <v>29</v>
       </c>
@@ -13993,9 +14333,9 @@
     </row>
     <row r="21" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
-      <c r="B21" s="317"/>
-      <c r="C21" s="320"/>
-      <c r="D21" s="325"/>
+      <c r="B21" s="313"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="311"/>
       <c r="E21" s="107" t="s">
         <v>27</v>
       </c>
@@ -14008,7 +14348,7 @@
       <c r="H21" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="326"/>
+      <c r="I21" s="321"/>
       <c r="J21" s="44" t="s">
         <v>31</v>
       </c>
@@ -14037,9 +14377,9 @@
     </row>
     <row r="22" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
-      <c r="B22" s="317"/>
-      <c r="C22" s="320"/>
-      <c r="D22" s="325"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="316"/>
+      <c r="D22" s="311"/>
       <c r="E22" s="108" t="s">
         <v>176</v>
       </c>
@@ -14052,7 +14392,7 @@
       <c r="H22" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="326"/>
+      <c r="I22" s="321"/>
       <c r="J22" s="111" t="s">
         <v>32</v>
       </c>
@@ -14081,9 +14421,9 @@
     </row>
     <row r="23" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
-      <c r="B23" s="317"/>
-      <c r="C23" s="320"/>
-      <c r="D23" s="325"/>
+      <c r="B23" s="313"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="311"/>
       <c r="E23" s="90" t="s">
         <v>178</v>
       </c>
@@ -14096,7 +14436,7 @@
       <c r="H23" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="326"/>
+      <c r="I23" s="321"/>
       <c r="J23" s="93" t="s">
         <v>39</v>
       </c>
@@ -14125,11 +14465,11 @@
     </row>
     <row r="24" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="77"/>
-      <c r="B24" s="317"/>
-      <c r="C24" s="321" t="s">
+      <c r="B24" s="313"/>
+      <c r="C24" s="317" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="322" t="s">
+      <c r="D24" s="318" t="s">
         <v>117</v>
       </c>
       <c r="E24" s="78" t="s">
@@ -14144,7 +14484,7 @@
       <c r="H24" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="323" t="s">
+      <c r="I24" s="319" t="s">
         <v>181</v>
       </c>
       <c r="J24" s="81" t="s">
@@ -14173,9 +14513,9 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
-      <c r="B25" s="317"/>
-      <c r="C25" s="321"/>
-      <c r="D25" s="322"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="317"/>
+      <c r="D25" s="318"/>
       <c r="E25" s="96"/>
       <c r="F25" s="96"/>
       <c r="G25" s="97" t="s">
@@ -14184,7 +14524,7 @@
       <c r="H25" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="323"/>
+      <c r="I25" s="319"/>
       <c r="J25" s="99" t="s">
         <v>1</v>
       </c>
@@ -14211,9 +14551,9 @@
     </row>
     <row r="26" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
-      <c r="B26" s="317"/>
-      <c r="C26" s="321"/>
-      <c r="D26" s="322"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="318"/>
       <c r="E26" s="115" t="s">
         <v>126</v>
       </c>
@@ -14226,7 +14566,7 @@
       <c r="H26" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="323"/>
+      <c r="I26" s="319"/>
       <c r="J26" s="119" t="s">
         <v>29</v>
       </c>
@@ -14255,9 +14595,9 @@
     </row>
     <row r="27" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
-      <c r="B27" s="317"/>
-      <c r="C27" s="321"/>
-      <c r="D27" s="322"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="317"/>
+      <c r="D27" s="318"/>
       <c r="E27" s="127" t="s">
         <v>27</v>
       </c>
@@ -14270,7 +14610,7 @@
       <c r="H27" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="323"/>
+      <c r="I27" s="319"/>
       <c r="J27" s="119" t="s">
         <v>31</v>
       </c>
@@ -14299,9 +14639,9 @@
     </row>
     <row r="28" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
-      <c r="B28" s="317"/>
-      <c r="C28" s="321"/>
-      <c r="D28" s="322"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="317"/>
+      <c r="D28" s="318"/>
       <c r="E28" s="54" t="s">
         <v>136</v>
       </c>
@@ -14314,7 +14654,7 @@
       <c r="H28" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="323"/>
+      <c r="I28" s="319"/>
       <c r="J28" s="57" t="s">
         <v>63</v>
       </c>
@@ -14341,9 +14681,9 @@
     </row>
     <row r="29" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="131"/>
-      <c r="B29" s="317"/>
-      <c r="C29" s="321"/>
-      <c r="D29" s="322"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="317"/>
+      <c r="D29" s="318"/>
       <c r="E29" s="132" t="s">
         <v>193</v>
       </c>
@@ -14356,7 +14696,7 @@
       <c r="H29" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="323"/>
+      <c r="I29" s="319"/>
       <c r="J29" s="111" t="s">
         <v>32</v>
       </c>
@@ -14385,9 +14725,9 @@
     </row>
     <row r="30" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
-      <c r="B30" s="317"/>
-      <c r="C30" s="321"/>
-      <c r="D30" s="322"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="318"/>
       <c r="E30" s="108" t="s">
         <v>196</v>
       </c>
@@ -14400,7 +14740,7 @@
       <c r="H30" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="323"/>
+      <c r="I30" s="319"/>
       <c r="J30" s="111" t="s">
         <v>39</v>
       </c>
@@ -14429,9 +14769,9 @@
     </row>
     <row r="31" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
-      <c r="B31" s="317"/>
-      <c r="C31" s="321"/>
-      <c r="D31" s="322"/>
+      <c r="B31" s="313"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="318"/>
       <c r="E31" s="133" t="s">
         <v>126</v>
       </c>
@@ -14444,7 +14784,7 @@
       <c r="H31" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="323"/>
+      <c r="I31" s="319"/>
       <c r="J31" s="136" t="s">
         <v>33</v>
       </c>
@@ -14473,9 +14813,9 @@
     </row>
     <row r="32" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="77"/>
-      <c r="B32" s="317"/>
-      <c r="C32" s="321"/>
-      <c r="D32" s="322" t="s">
+      <c r="B32" s="313"/>
+      <c r="C32" s="317"/>
+      <c r="D32" s="318" t="s">
         <v>201</v>
       </c>
       <c r="E32" s="78" t="s">
@@ -14490,7 +14830,7 @@
       <c r="H32" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="324" t="s">
+      <c r="I32" s="320" t="s">
         <v>203</v>
       </c>
       <c r="J32" s="81" t="s">
@@ -14519,9 +14859,9 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
-      <c r="B33" s="317"/>
-      <c r="C33" s="321"/>
-      <c r="D33" s="322"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="317"/>
+      <c r="D33" s="318"/>
       <c r="E33" s="96"/>
       <c r="F33" s="96"/>
       <c r="G33" s="97" t="s">
@@ -14530,7 +14870,7 @@
       <c r="H33" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="324"/>
+      <c r="I33" s="320"/>
       <c r="J33" s="99" t="s">
         <v>1</v>
       </c>
@@ -14557,9 +14897,9 @@
     </row>
     <row r="34" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
-      <c r="B34" s="317"/>
-      <c r="C34" s="321"/>
-      <c r="D34" s="322"/>
+      <c r="B34" s="313"/>
+      <c r="C34" s="317"/>
+      <c r="D34" s="318"/>
       <c r="E34" s="115" t="s">
         <v>27</v>
       </c>
@@ -14572,7 +14912,7 @@
       <c r="H34" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="324"/>
+      <c r="I34" s="320"/>
       <c r="J34" s="120" t="s">
         <v>29</v>
       </c>
@@ -14601,9 +14941,9 @@
     </row>
     <row r="35" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
-      <c r="B35" s="317"/>
-      <c r="C35" s="321"/>
-      <c r="D35" s="322"/>
+      <c r="B35" s="313"/>
+      <c r="C35" s="317"/>
+      <c r="D35" s="318"/>
       <c r="E35" s="115" t="s">
         <v>27</v>
       </c>
@@ -14616,7 +14956,7 @@
       <c r="H35" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="324"/>
+      <c r="I35" s="320"/>
       <c r="J35" s="120" t="s">
         <v>31</v>
       </c>
@@ -14645,9 +14985,9 @@
     </row>
     <row r="36" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
-      <c r="B36" s="317"/>
-      <c r="C36" s="321"/>
-      <c r="D36" s="322"/>
+      <c r="B36" s="313"/>
+      <c r="C36" s="317"/>
+      <c r="D36" s="318"/>
       <c r="E36" s="54" t="s">
         <v>136</v>
       </c>
@@ -14660,7 +15000,7 @@
       <c r="H36" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="324"/>
+      <c r="I36" s="320"/>
       <c r="J36" s="57" t="s">
         <v>32</v>
       </c>
@@ -14687,9 +15027,9 @@
     </row>
     <row r="37" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
-      <c r="B37" s="317"/>
-      <c r="C37" s="321"/>
-      <c r="D37" s="322"/>
+      <c r="B37" s="313"/>
+      <c r="C37" s="317"/>
+      <c r="D37" s="318"/>
       <c r="E37" s="151" t="s">
         <v>196</v>
       </c>
@@ -14702,7 +15042,7 @@
       <c r="H37" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="324"/>
+      <c r="I37" s="320"/>
       <c r="J37" s="93" t="s">
         <v>39</v>
       </c>
@@ -14731,9 +15071,9 @@
     </row>
     <row r="38" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="77"/>
-      <c r="B38" s="317"/>
-      <c r="C38" s="321"/>
-      <c r="D38" s="322" t="s">
+      <c r="B38" s="313"/>
+      <c r="C38" s="317"/>
+      <c r="D38" s="318" t="s">
         <v>211</v>
       </c>
       <c r="E38" s="78" t="s">
@@ -14748,7 +15088,7 @@
       <c r="H38" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="324" t="s">
+      <c r="I38" s="320" t="s">
         <v>212</v>
       </c>
       <c r="J38" s="81" t="s">
@@ -14777,9 +15117,9 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
-      <c r="B39" s="317"/>
-      <c r="C39" s="321"/>
-      <c r="D39" s="322"/>
+      <c r="B39" s="313"/>
+      <c r="C39" s="317"/>
+      <c r="D39" s="318"/>
       <c r="E39" s="96"/>
       <c r="F39" s="96"/>
       <c r="G39" s="97" t="s">
@@ -14788,7 +15128,7 @@
       <c r="H39" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="324"/>
+      <c r="I39" s="320"/>
       <c r="J39" s="99" t="s">
         <v>1</v>
       </c>
@@ -14815,9 +15155,9 @@
     </row>
     <row r="40" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
-      <c r="B40" s="317"/>
-      <c r="C40" s="321"/>
-      <c r="D40" s="322"/>
+      <c r="B40" s="313"/>
+      <c r="C40" s="317"/>
+      <c r="D40" s="318"/>
       <c r="E40" s="115" t="s">
         <v>27</v>
       </c>
@@ -14830,7 +15170,7 @@
       <c r="H40" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="324"/>
+      <c r="I40" s="320"/>
       <c r="J40" s="120" t="s">
         <v>29</v>
       </c>
@@ -14859,9 +15199,9 @@
     </row>
     <row r="41" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
-      <c r="B41" s="317"/>
-      <c r="C41" s="321"/>
-      <c r="D41" s="322"/>
+      <c r="B41" s="313"/>
+      <c r="C41" s="317"/>
+      <c r="D41" s="318"/>
       <c r="E41" s="115" t="s">
         <v>27</v>
       </c>
@@ -14874,7 +15214,7 @@
       <c r="H41" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="324"/>
+      <c r="I41" s="320"/>
       <c r="J41" s="120" t="s">
         <v>31</v>
       </c>
@@ -14903,9 +15243,9 @@
     </row>
     <row r="42" spans="1:18" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="131"/>
-      <c r="B42" s="317"/>
-      <c r="C42" s="321"/>
-      <c r="D42" s="322"/>
+      <c r="B42" s="313"/>
+      <c r="C42" s="317"/>
+      <c r="D42" s="318"/>
       <c r="E42" s="132" t="s">
         <v>193</v>
       </c>
@@ -14918,7 +15258,7 @@
       <c r="H42" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="324"/>
+      <c r="I42" s="320"/>
       <c r="J42" s="111" t="s">
         <v>32</v>
       </c>
@@ -14947,9 +15287,9 @@
     </row>
     <row r="43" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
-      <c r="B43" s="317"/>
-      <c r="C43" s="321"/>
-      <c r="D43" s="322"/>
+      <c r="B43" s="313"/>
+      <c r="C43" s="317"/>
+      <c r="D43" s="318"/>
       <c r="E43" s="151" t="s">
         <v>196</v>
       </c>
@@ -14962,7 +15302,7 @@
       <c r="H43" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="324"/>
+      <c r="I43" s="320"/>
       <c r="J43" s="93" t="s">
         <v>39</v>
       </c>
@@ -14991,9 +15331,9 @@
     </row>
     <row r="44" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="77"/>
-      <c r="B44" s="317"/>
-      <c r="C44" s="321"/>
-      <c r="D44" s="322" t="s">
+      <c r="B44" s="313"/>
+      <c r="C44" s="317"/>
+      <c r="D44" s="318" t="s">
         <v>222</v>
       </c>
       <c r="E44" s="78" t="s">
@@ -15008,7 +15348,7 @@
       <c r="H44" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="324" t="s">
+      <c r="I44" s="320" t="s">
         <v>223</v>
       </c>
       <c r="J44" s="81" t="s">
@@ -15037,9 +15377,9 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
-      <c r="B45" s="317"/>
-      <c r="C45" s="321"/>
-      <c r="D45" s="322"/>
+      <c r="B45" s="313"/>
+      <c r="C45" s="317"/>
+      <c r="D45" s="318"/>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
       <c r="G45" s="97" t="s">
@@ -15048,7 +15388,7 @@
       <c r="H45" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="324"/>
+      <c r="I45" s="320"/>
       <c r="J45" s="99" t="s">
         <v>1</v>
       </c>
@@ -15075,9 +15415,9 @@
     </row>
     <row r="46" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
-      <c r="B46" s="317"/>
-      <c r="C46" s="321"/>
-      <c r="D46" s="322"/>
+      <c r="B46" s="313"/>
+      <c r="C46" s="317"/>
+      <c r="D46" s="318"/>
       <c r="E46" s="127" t="s">
         <v>27</v>
       </c>
@@ -15090,7 +15430,7 @@
       <c r="H46" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="324"/>
+      <c r="I46" s="320"/>
       <c r="J46" s="120" t="s">
         <v>29</v>
       </c>
@@ -15119,9 +15459,9 @@
     </row>
     <row r="47" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
-      <c r="B47" s="317"/>
-      <c r="C47" s="321"/>
-      <c r="D47" s="322"/>
+      <c r="B47" s="313"/>
+      <c r="C47" s="317"/>
+      <c r="D47" s="318"/>
       <c r="E47" s="127" t="s">
         <v>27</v>
       </c>
@@ -15134,7 +15474,7 @@
       <c r="H47" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="324"/>
+      <c r="I47" s="320"/>
       <c r="J47" s="120" t="s">
         <v>31</v>
       </c>
@@ -15163,9 +15503,9 @@
     </row>
     <row r="48" spans="1:18" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="131"/>
-      <c r="B48" s="317"/>
-      <c r="C48" s="321"/>
-      <c r="D48" s="322"/>
+      <c r="B48" s="313"/>
+      <c r="C48" s="317"/>
+      <c r="D48" s="318"/>
       <c r="E48" s="152" t="s">
         <v>193</v>
       </c>
@@ -15178,7 +15518,7 @@
       <c r="H48" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="324"/>
+      <c r="I48" s="320"/>
       <c r="J48" s="93" t="s">
         <v>32</v>
       </c>
@@ -15207,11 +15547,11 @@
     </row>
     <row r="49" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="77"/>
-      <c r="B49" s="317"/>
-      <c r="C49" s="310" t="s">
+      <c r="B49" s="313"/>
+      <c r="C49" s="326" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="312" t="s">
+      <c r="D49" s="328" t="s">
         <v>117</v>
       </c>
       <c r="E49" s="78" t="s">
@@ -15226,7 +15566,7 @@
       <c r="H49" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="313" t="s">
+      <c r="I49" s="329" t="s">
         <v>230</v>
       </c>
       <c r="J49" s="81" t="s">
@@ -15255,9 +15595,9 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
-      <c r="B50" s="317"/>
-      <c r="C50" s="310"/>
-      <c r="D50" s="312"/>
+      <c r="B50" s="313"/>
+      <c r="C50" s="326"/>
+      <c r="D50" s="328"/>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
       <c r="G50" s="97" t="s">
@@ -15266,7 +15606,7 @@
       <c r="H50" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="313"/>
+      <c r="I50" s="329"/>
       <c r="J50" s="99" t="s">
         <v>1</v>
       </c>
@@ -15293,9 +15633,9 @@
     </row>
     <row r="51" spans="1:18" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="131"/>
-      <c r="B51" s="317"/>
-      <c r="C51" s="310"/>
-      <c r="D51" s="312"/>
+      <c r="B51" s="313"/>
+      <c r="C51" s="326"/>
+      <c r="D51" s="328"/>
       <c r="E51" s="132" t="s">
         <v>193</v>
       </c>
@@ -15308,7 +15648,7 @@
       <c r="H51" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="313"/>
+      <c r="I51" s="329"/>
       <c r="J51" s="111" t="s">
         <v>29</v>
       </c>
@@ -15339,9 +15679,9 @@
     </row>
     <row r="52" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
-      <c r="B52" s="317"/>
-      <c r="C52" s="310"/>
-      <c r="D52" s="312"/>
+      <c r="B52" s="313"/>
+      <c r="C52" s="326"/>
+      <c r="D52" s="328"/>
       <c r="E52" s="159" t="s">
         <v>27</v>
       </c>
@@ -15354,7 +15694,7 @@
       <c r="H52" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="313"/>
+      <c r="I52" s="329"/>
       <c r="J52" s="162" t="s">
         <v>31</v>
       </c>
@@ -15383,9 +15723,9 @@
     </row>
     <row r="53" spans="1:18" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="131"/>
-      <c r="B53" s="317"/>
-      <c r="C53" s="310"/>
-      <c r="D53" s="312"/>
+      <c r="B53" s="313"/>
+      <c r="C53" s="326"/>
+      <c r="D53" s="328"/>
       <c r="E53" s="132" t="s">
         <v>193</v>
       </c>
@@ -15398,7 +15738,7 @@
       <c r="H53" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="I53" s="313"/>
+      <c r="I53" s="329"/>
       <c r="J53" s="111" t="s">
         <v>32</v>
       </c>
@@ -15427,9 +15767,9 @@
     </row>
     <row r="54" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
-      <c r="B54" s="317"/>
-      <c r="C54" s="310"/>
-      <c r="D54" s="312"/>
+      <c r="B54" s="313"/>
+      <c r="C54" s="326"/>
+      <c r="D54" s="328"/>
       <c r="E54" s="151" t="s">
         <v>196</v>
       </c>
@@ -15442,7 +15782,7 @@
       <c r="H54" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="313"/>
+      <c r="I54" s="329"/>
       <c r="J54" s="93" t="s">
         <v>39</v>
       </c>
@@ -15471,9 +15811,9 @@
     </row>
     <row r="55" spans="1:18" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="77"/>
-      <c r="B55" s="317"/>
-      <c r="C55" s="310"/>
-      <c r="D55" s="312" t="s">
+      <c r="B55" s="313"/>
+      <c r="C55" s="326"/>
+      <c r="D55" s="328" t="s">
         <v>201</v>
       </c>
       <c r="E55" s="78" t="s">
@@ -15488,7 +15828,7 @@
       <c r="H55" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="313" t="s">
+      <c r="I55" s="329" t="s">
         <v>237</v>
       </c>
       <c r="J55" s="81" t="s">
@@ -15517,9 +15857,9 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
-      <c r="B56" s="317"/>
-      <c r="C56" s="310"/>
-      <c r="D56" s="312"/>
+      <c r="B56" s="313"/>
+      <c r="C56" s="326"/>
+      <c r="D56" s="328"/>
       <c r="E56" s="96"/>
       <c r="F56" s="96"/>
       <c r="G56" s="97" t="s">
@@ -15528,7 +15868,7 @@
       <c r="H56" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="313"/>
+      <c r="I56" s="329"/>
       <c r="J56" s="99" t="s">
         <v>1</v>
       </c>
@@ -15555,9 +15895,9 @@
     </row>
     <row r="57" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
-      <c r="B57" s="317"/>
-      <c r="C57" s="310"/>
-      <c r="D57" s="312"/>
+      <c r="B57" s="313"/>
+      <c r="C57" s="326"/>
+      <c r="D57" s="328"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="55" t="s">
@@ -15566,7 +15906,7 @@
       <c r="H57" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="313"/>
+      <c r="I57" s="329"/>
       <c r="J57" s="57" t="s">
         <v>29</v>
       </c>
@@ -15595,9 +15935,9 @@
     </row>
     <row r="58" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
-      <c r="B58" s="317"/>
-      <c r="C58" s="310"/>
-      <c r="D58" s="312"/>
+      <c r="B58" s="313"/>
+      <c r="C58" s="326"/>
+      <c r="D58" s="328"/>
       <c r="E58" s="159" t="s">
         <v>27</v>
       </c>
@@ -15610,7 +15950,7 @@
       <c r="H58" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="313"/>
+      <c r="I58" s="329"/>
       <c r="J58" s="162" t="s">
         <v>31</v>
       </c>
@@ -15639,9 +15979,9 @@
     </row>
     <row r="59" spans="1:18" ht="54.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="131"/>
-      <c r="B59" s="318"/>
-      <c r="C59" s="311"/>
-      <c r="D59" s="314"/>
+      <c r="B59" s="314"/>
+      <c r="C59" s="327"/>
+      <c r="D59" s="330"/>
       <c r="E59" s="171" t="s">
         <v>193</v>
       </c>
@@ -15654,7 +15994,7 @@
       <c r="H59" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="I59" s="315"/>
+      <c r="I59" s="331"/>
       <c r="J59" s="175" t="s">
         <v>32</v>
       </c>
@@ -15727,6 +16067,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I18:I23"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="C49:C59"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="I49:I54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="I55:I59"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="O2:Q2"/>
@@ -15744,14 +16092,6 @@
     <mergeCell ref="I44:I48"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="I12:I17"/>
-    <mergeCell ref="I18:I23"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="C49:C59"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="I49:I54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="I55:I59"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
@@ -15776,10 +16116,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="13" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="13" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -15800,7 +16140,7 @@
         <v>447</v>
       </c>
       <c r="D1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -15817,7 +16157,7 @@
         <v>448</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15834,7 +16174,7 @@
         <v>449</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -15851,7 +16191,7 @@
         <v>450</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -15868,7 +16208,7 @@
         <v>451</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -15885,7 +16225,7 @@
         <v>452</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -15902,7 +16242,7 @@
         <v>453</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -15919,7 +16259,7 @@
         <v>454</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -15936,7 +16276,7 @@
         <v>455</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -15953,7 +16293,7 @@
         <v>456</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -15970,7 +16310,7 @@
         <v>457</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -15987,7 +16327,7 @@
         <v>458</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -16004,13 +16344,13 @@
         <v>459</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -16018,16 +16358,16 @@
         <v>441</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -16035,33 +16375,33 @@
         <v>438</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -16069,61 +16409,61 @@
         <v>439</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="409.5" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -16133,8 +16473,11 @@
   <autoFilter ref="A1:E20" xr:uid="{E8E3E6A6-714D-46D9-9AEB-4A1C58CBD5D7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="tofr901v"/>
-        <filter val="tofr911v"/>
+        <filter val="tofr501v"/>
+        <filter val="tofr502v"/>
+        <filter val="tofr511v"/>
+        <filter val="tofr521v"/>
+        <filter val="tofr531v"/>
       </filters>
     </filterColumn>
   </autoFilter>
